--- a/xlsx/爱德华·普雷斯科特_intext.xlsx
+++ b/xlsx/爱德华·普雷斯科特_intext.xlsx
@@ -29,7 +29,7 @@
     <t>基德兰德</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_爱德华·普雷斯科特</t>
+    <t>政策_政策_货币政策_爱德华·普雷斯科特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%A5%96</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B2%83%E6%96%AF%E8%8E%AB%E7%88%BE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>斯沃斯莫爾學院</t>
+    <t>斯沃斯莫尔学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%86%85%E5%9F%BA%E6%A2%85%E9%9A%86%E5%A4%A7%E5%AD%A6</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>美國聯邦儲備銀行</t>
+    <t>美国联邦储备银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%AF%BA%E8%B4%9D%E5%B0%94%E7%BB%8F%E6%B5%8E%E5%AD%A6%E5%A5%96%E8%8E%B7%E5%BE%97%E8%80%85</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%96%A9%E7%B9%86%E7%88%BE%E6%A3%AE</t>
   </si>
   <si>
-    <t>保羅·薩繆爾森</t>
+    <t>保罗·萨缪尔森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%92%99%C2%B7%E5%8F%B2%E5%AF%86%E6%96%AF%C2%B7%E5%BA%93%E5%85%B9%E6%B6%85%E8%8C%A8</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
   </si>
   <si>
-    <t>米爾頓·佛利民</t>
+    <t>米尔顿·佛利民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E8%92%82%E5%B0%94%C2%B7%E5%A5%A5%E6%9E%97</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E5%A8%81%E5%BB%89%C2%B7%E8%88%92%E7%88%BE%E8%8C%A8</t>
   </si>
   <si>
-    <t>西奧多·威廉·舒爾茨</t>
+    <t>西奥多·威廉·舒尔茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E9%98%BF%E7%91%9F%C2%B7%E5%88%98%E6%98%93%E6%96%AF</t>
@@ -191,37 +191,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%C2%B7%E5%85%8B%E8%90%8A%E5%9B%A0</t>
   </si>
   <si>
-    <t>勞倫斯·克萊因</t>
+    <t>劳伦斯·克莱因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%89%98%E8%B3%93</t>
   </si>
   <si>
-    <t>詹姆士·托賓</t>
+    <t>詹姆士·托宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E6%96%AF%E8%92%82%E6%A0%BC%E5%8B%92</t>
   </si>
   <si>
-    <t>喬治·斯蒂格勒</t>
+    <t>乔治·斯蒂格勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E6%8B%89%E5%BE%B7%C2%B7%E5%BE%B7%E5%B8%83%E9%AD%AF</t>
   </si>
   <si>
-    <t>傑拉德·德布魯</t>
+    <t>杰拉德·德布鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%8F%B2%E6%9D%B1</t>
   </si>
   <si>
-    <t>理查德·史東</t>
+    <t>理查德·史东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E7%A7%91%C2%B7%E8%8E%AB%E8%BF%AA%E5%88%A9%E5%AE%89%E5%B0%BC</t>
   </si>
   <si>
-    <t>弗蘭科·莫迪利安尼</t>
+    <t>弗兰科·莫迪利安尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7M%C2%B7%E5%B8%83%E5%9D%8E%E5%8D%97</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%87%8C%E5%A4%AB%C2%B7%E5%93%88%E7%B6%AD%E9%BB%98</t>
   </si>
   <si>
-    <t>特里夫·哈維默</t>
+    <t>特里夫·哈维默</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%88%A9%C2%B7%E9%A6%AC%E5%8F%AF%E7%B6%AD%E8%8C%B2</t>
   </si>
   <si>
-    <t>哈利·馬可維茲</t>
+    <t>哈利·马可维兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%98%E9%A1%BF%C2%B7%E7%B1%B3%E5%8B%92</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%91%9E%C2%B7%E8%B2%9D%E5%85%8B</t>
   </si>
   <si>
-    <t>蓋瑞·貝克</t>
+    <t>盖瑞·贝克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E7%A6%8F%E6%A0%BC%E5%B0%94</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E7%88%BE</t>
   </si>
   <si>
-    <t>羅伯特·蒙代爾</t>
+    <t>罗伯特·蒙代尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E8%B5%AB%E5%85%8B%E6%9B%BC</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%85%8B%E9%AD%AF%E6%A0%BC%E6%9B%BC</t>
   </si>
   <si>
-    <t>保羅·克魯格曼</t>
+    <t>保罗·克鲁格曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E8%8E%89%E8%AF%BA%C2%B7%E5%A5%A5%E6%96%AF%E7%89%B9%E7%BD%97%E5%A7%86</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E7%91%AA%E6%96%AF%C2%B7%E8%96%A9%E9%87%91%E7%89%B9</t>
   </si>
   <si>
-    <t>托瑪斯·薩金特</t>
+    <t>托玛斯·萨金特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E8%A5%BF%E5%A7%86%E6%96%AF</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%8B%83%C2%B7%E5%B8%AD%E5%8B%92</t>
   </si>
   <si>
-    <t>羅勃·席勒</t>
+    <t>罗勃·席勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E6%A2%AF%E8%8B%A5%E5%B0%94</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
 </sst>
 </file>
